--- a/artfynd/A 62321-2019.xlsx
+++ b/artfynd/A 62321-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80491706</v>
+        <v>80491721</v>
       </c>
       <c r="B2" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Storåsen, Dlr</t>
+          <t>Gårdtjärnsmyrorna, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>414384.947644942</v>
+        <v>414915.9210306811</v>
       </c>
       <c r="R2" t="n">
-        <v>6715092.921643512</v>
+        <v>6715399.095652443</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80491716</v>
+        <v>80491722</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>85703</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Storåsen, Dlr</t>
+          <t>Gårdtjärnsmyrorna, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>414430.7598552333</v>
+        <v>414916.8826095874</v>
       </c>
       <c r="R3" t="n">
-        <v>6715154.798017079</v>
+        <v>6715398.089234225</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,12 +872,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På död gran</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80491714</v>
+        <v>80491706</v>
       </c>
       <c r="B4" t="n">
         <v>89356</v>
@@ -944,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>414472.0158322724</v>
+        <v>414384.947644942</v>
       </c>
       <c r="R4" t="n">
-        <v>6715170.051899989</v>
+        <v>6715092.921643512</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,7 +1021,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80491721</v>
+        <v>80491716</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1052,14 +1057,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Gårdtjärnsmyrorna, Dlr</t>
+          <t>Storåsen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>414915.9210306811</v>
+        <v>414430.7598552333</v>
       </c>
       <c r="R5" t="n">
-        <v>6715399.095652443</v>
+        <v>6715154.798017079</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1086,7 +1091,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1101,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80491713</v>
+        <v>80491714</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>414475.0636448057</v>
+        <v>414472.0158322724</v>
       </c>
       <c r="R6" t="n">
-        <v>6715173.91479082</v>
+        <v>6715170.051899989</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1240,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80491722</v>
+        <v>80491713</v>
       </c>
       <c r="B7" t="n">
-        <v>85703</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,34 +1261,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Gårdtjärnsmyrorna, Dlr</t>
+          <t>Storåsen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>414916.8826095874</v>
+        <v>414475.0636448057</v>
       </c>
       <c r="R7" t="n">
-        <v>6715398.089234225</v>
+        <v>6715173.91479082</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1310,7 +1315,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,17 +1325,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På död gran</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 62321-2019.xlsx
+++ b/artfynd/A 62321-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80491721</v>
+        <v>80491706</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Gårdtjärnsmyrorna, Dlr</t>
+          <t>Storåsen, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>414915.9210306811</v>
+        <v>414384.947644942</v>
       </c>
       <c r="R2" t="n">
-        <v>6715399.095652443</v>
+        <v>6715092.921643512</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80491722</v>
+        <v>80491716</v>
       </c>
       <c r="B3" t="n">
-        <v>85703</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Gårdtjärnsmyrorna, Dlr</t>
+          <t>Storåsen, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>414916.8826095874</v>
+        <v>414430.7598552333</v>
       </c>
       <c r="R3" t="n">
-        <v>6715398.089234225</v>
+        <v>6715154.798017079</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,17 +872,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På död gran</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80491706</v>
+        <v>80491714</v>
       </c>
       <c r="B4" t="n">
         <v>89356</v>
@@ -949,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>414384.947644942</v>
+        <v>414472.0158322724</v>
       </c>
       <c r="R4" t="n">
-        <v>6715092.921643512</v>
+        <v>6715170.051899989</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1021,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80491716</v>
+        <v>80491721</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1057,14 +1052,14 @@
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Storåsen, Dlr</t>
+          <t>Gårdtjärnsmyrorna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>414430.7598552333</v>
+        <v>414915.9210306811</v>
       </c>
       <c r="R5" t="n">
-        <v>6715154.798017079</v>
+        <v>6715399.095652443</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1091,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1101,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1133,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80491714</v>
+        <v>80491713</v>
       </c>
       <c r="B6" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>414472.0158322724</v>
+        <v>414475.0636448057</v>
       </c>
       <c r="R6" t="n">
-        <v>6715170.051899989</v>
+        <v>6715173.91479082</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1245,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80491713</v>
+        <v>80491722</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>85703</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,34 +1256,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Storåsen, Dlr</t>
+          <t>Gårdtjärnsmyrorna, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>414475.0636448057</v>
+        <v>414916.8826095874</v>
       </c>
       <c r="R7" t="n">
-        <v>6715173.91479082</v>
+        <v>6715398.089234225</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1315,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1325,12 +1320,17 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På död gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
